--- a/testData/关键字驱动测试用例.xlsx
+++ b/testData/关键字驱动测试用例.xlsx
@@ -51,6 +51,12 @@
     <t>y</t>
   </si>
   <si>
+    <t>2017-12-15 13:37:25</t>
+  </si>
+  <si>
+    <t>Faild</t>
+  </si>
+  <si>
     <t>发送带附件的邮件</t>
   </si>
   <si>
@@ -96,136 +102,120 @@
     <t>open_browser</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>2017-12-15 10:20:35</t>
-  </si>
-  <si>
-    <t>打开URL地址</t>
-  </si>
-  <si>
-    <t>visit_url</t>
-  </si>
-  <si>
-    <t>http://10.1.2.58:8080/login.jsp</t>
-  </si>
-  <si>
-    <t>浏览器最大化</t>
-  </si>
-  <si>
-    <t>maximize_browser</t>
-  </si>
-  <si>
-    <t>等待5秒</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>判断浏览器的标题</t>
-  </si>
-  <si>
-    <t>assert_string_in_pagesource</t>
-  </si>
-  <si>
-    <t>深圳市金斧子网络科技有限公司-ERP</t>
-  </si>
-  <si>
-    <t>输入用户名</t>
-  </si>
-  <si>
-    <t>input_string</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//*[@name='username']</t>
-  </si>
-  <si>
-    <t>defang1</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>//*[@name='password']</t>
-  </si>
-  <si>
-    <t>点击登录按钮</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>//*[@class='submit_wrap']</t>
-  </si>
-  <si>
-    <t>Faild</t>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>2017-12-15 13:38:36</t>
   </si>
   <si>
     <t xml:space="preserve">Traceback (most recent call last):
-  File "D:\Erp_KeyWordFrameWork\testScripts\TestBuydetail.py", line 137, in TestBuydetail
+  File "D:\python\Erp_KeyWordFrameWork\testScripts\TestBuydetail.py", line 137, in TestBuydetail
     eval(expressionStr)
   File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "D:\Erp_KeyWordFrameWork\action\PageAction.py", line 45, in open_browser
+  File "D:\python\Erp_KeyWordFrameWork\action\PageAction.py", line 45, in open_browser
     raise e
-  File "D:\Erp_KeyWordFrameWork\action\PageAction.py", line 43, in open_browser
+  File "D:\python\Erp_KeyWordFrameWork\action\PageAction.py", line 43, in open_browser
     waitUtil = waitUtil(driver)
 TypeError: 'NoneType' object is not callable
 </t>
   </si>
   <si>
-    <t>D:\Erp_KeyWordFrameWork\exceptionpictures\2017-12-15\10-20-34-883836.png</t>
-  </si>
-  <si>
-    <t>2017-12-15 10:20:36</t>
+    <t>D:\python\Erp_KeyWordFrameWork\exceptionpictures\2017-12-15\13-37-12-688118.png</t>
+  </si>
+  <si>
+    <t>打开URL地址</t>
+  </si>
+  <si>
+    <t>visit_url</t>
+  </si>
+  <si>
+    <t>http://10.1.2.58:8080/login.jsp</t>
+  </si>
+  <si>
+    <t>2017-12-15 13:37:14</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>2017-12-15 10:20:37</t>
-  </si>
-  <si>
-    <t>2017-12-15 10:20:42</t>
-  </si>
-  <si>
-    <t>2017-12-15 10:20:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceback (most recent call last):
-  File "D:\Erp_KeyWordFrameWork\testScripts\TestBuydetail.py", line 137, in TestBuydetail
-    eval(expressionStr)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-NameError: name 'xpath' is not defined
-</t>
-  </si>
-  <si>
-    <t>D:\Erp_KeyWordFrameWork\exceptionpictures\2017-12-15\10-20-43-142122.png</t>
-  </si>
-  <si>
-    <t>2017-12-15 10:20:44</t>
-  </si>
-  <si>
-    <t>D:\Erp_KeyWordFrameWork\exceptionpictures\2017-12-15\10-20-43-946552.png</t>
-  </si>
-  <si>
-    <t>2017-12-15 10:20:45</t>
+    <t>浏览器最大化</t>
+  </si>
+  <si>
+    <t>maximize_browser</t>
+  </si>
+  <si>
+    <t>2017-12-15 13:37:15</t>
+  </si>
+  <si>
+    <t>等待5秒</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>2017-12-15 13:37:20</t>
+  </si>
+  <si>
+    <t>判断浏览器的标题</t>
+  </si>
+  <si>
+    <t>assert_string_in_pagesource</t>
+  </si>
+  <si>
+    <t>深圳市金斧子网络科技有限公司-ERP</t>
+  </si>
+  <si>
+    <t>2017-12-15 13:37:21</t>
+  </si>
+  <si>
+    <t>输入用户名</t>
+  </si>
+  <si>
+    <t>input_string</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//*[@name='username']</t>
+  </si>
+  <si>
+    <t>defang1</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>//*[@name='password']</t>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>//*[@class='submit_wrap']</t>
+  </si>
+  <si>
+    <t>D:\python\Erp_KeyWordFrameWork\exceptionpictures\2017-12-15\13-38-35-833874.png</t>
+  </si>
+  <si>
+    <t>2017-12-15 13:38:38</t>
+  </si>
+  <si>
+    <t>2017-12-15 13:38:43</t>
+  </si>
+  <si>
+    <t>2017-12-15 13:38:48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
-  </numFmts>
-  <fonts count="23">
+  <numFmts count="0"/>
+  <fonts count="24">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -235,6 +225,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FFFF3030"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF008B00"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
@@ -246,7 +250,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -254,42 +258,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -314,7 +283,16 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -322,7 +300,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -330,7 +308,8 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -340,31 +319,6 @@
       <family val="2"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -381,8 +335,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -399,7 +352,50 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -425,6 +421,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -473,6 +487,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,48 +571,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -563,12 +589,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -582,30 +602,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,6 +612,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -634,15 +648,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -654,30 +659,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +680,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -707,68 +712,59 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="3" numFmtId="0"/>
-    <xf borderId="3" fillId="14" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="8" numFmtId="0"/>
+    <xf borderId="4" fillId="26" fontId="19" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="10" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="5" fillId="16" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf borderId="6" fillId="25" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="10" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0"/>
-    <xf borderId="5" fillId="17" fontId="16" numFmtId="0"/>
-    <xf borderId="3" fillId="17" fontId="13" numFmtId="0"/>
-    <xf borderId="1" fillId="8" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="10" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="7" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="20" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="4" numFmtId="0"/>
+    <xf borderId="7" fillId="15" fontId="20" numFmtId="0"/>
+    <xf borderId="4" fillId="15" fontId="12" numFmtId="0"/>
+    <xf borderId="3" fillId="11" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="4" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="21" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,15 +777,17 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="10">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -1145,7 +1143,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="6" width="15.5"/>
+    <col customWidth="1" max="2" min="2" style="8" width="15.5"/>
     <col customWidth="1" max="3" min="3" style="1" width="10.375"/>
     <col customWidth="1" max="6" min="6" style="3" width="18.25"/>
   </cols>
@@ -1173,7 +1171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" s="6" spans="1:10">
+    <row customHeight="1" ht="40.5" r="2" s="8" spans="1:10">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -1192,33 +1190,33 @@
       <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>48</v>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I2" t="s"/>
       <c r="J2" t="s"/>
     </row>
-    <row customHeight="1" ht="54" r="3" s="6" spans="1:10">
+    <row customHeight="1" ht="54" r="3" s="8" spans="1:10">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>48</v>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I3" t="s"/>
       <c r="J3" t="s"/>
@@ -1238,7 +1236,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1251,234 +1249,226 @@
     <col customWidth="1" max="7" min="7" style="2" width="13.5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="40.5" r="1" s="6" spans="1:10">
+    <row customHeight="1" ht="40.5" r="1" s="8" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" s="6" spans="1:10">
+    <row customHeight="1" ht="27" r="2" s="8" spans="1:10">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="3" s="6" spans="1:10">
+    <row customHeight="1" ht="27" r="3" s="8" spans="1:10">
       <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>52</v>
+      <c r="H3" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="I3" t="s"/>
       <c r="J3" t="s"/>
     </row>
-    <row customHeight="1" ht="27" r="4" s="6" spans="1:10">
+    <row customHeight="1" ht="27" r="4" s="8" spans="1:10">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="I4" t="s"/>
       <c r="J4" t="s"/>
     </row>
-    <row r="5" spans="1:10">
+    <row customHeight="1" ht="15" r="5" s="8" spans="1:10">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="I5" t="s"/>
       <c r="J5" t="s"/>
     </row>
-    <row customHeight="1" ht="27" r="6" s="6" spans="1:10">
+    <row customHeight="1" ht="27" r="6" s="8" spans="1:10">
       <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
     </row>
-    <row customHeight="1" ht="27" r="7" s="6" spans="1:10">
+    <row customHeight="1" ht="27" r="7" s="8" spans="1:10">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
     </row>
-    <row customHeight="1" ht="27" r="8" s="6" spans="1:10">
+    <row customHeight="1" ht="27" r="8" s="8" spans="1:10">
       <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>123</v>
+        <v>53</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>123456</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" t="s">
         <v>59</v>
       </c>
+      <c r="H8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
     </row>
-    <row customHeight="1" ht="27" r="9" s="6" spans="1:10">
+    <row customHeight="1" ht="27" r="9" s="8" spans="1:10">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
@@ -1503,36 +1493,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row customHeight="1" ht="40.5" r="1" s="6" spans="1:10">
+    <row customHeight="1" ht="40.5" r="1" s="8" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/testData/关键字驱动测试用例.xlsx
+++ b/testData/关键字驱动测试用例.xlsx
@@ -3,12 +3,12 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="1"/>
+    <s:workbookView activeTab="2"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="测试用例" sheetId="1" r:id="rId1"/>
     <s:sheet name="登录" sheetId="2" r:id="rId2"/>
-    <s:sheet name="发邮件" sheetId="3" r:id="rId3"/>
+    <s:sheet name="审批购买记录" sheetId="3" r:id="rId3"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t>序号</t>
   </si>
@@ -48,25 +48,25 @@
     <t>登录</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:11:54</t>
+  </si>
+  <si>
+    <t>Faild</t>
+  </si>
+  <si>
+    <t>审批购买记录</t>
+  </si>
+  <si>
+    <t>审批提交的购买记录</t>
+  </si>
+  <si>
     <t>y</t>
   </si>
   <si>
-    <t>2017-12-15 13:37:25</t>
-  </si>
-  <si>
-    <t>Faild</t>
-  </si>
-  <si>
-    <t>发送带附件的邮件</t>
-  </si>
-  <si>
-    <t>登录126邮箱后，发送一封带附件的邮件</t>
-  </si>
-  <si>
-    <t>发邮件</t>
-  </si>
-  <si>
-    <t>n</t>
+    <t>2017-12-19 20:02:08</t>
   </si>
   <si>
     <t>测试步骤描述</t>
@@ -105,22 +105,22 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>2017-12-15 13:38:36</t>
+    <t>2017-12-18 19:49:59</t>
   </si>
   <si>
     <t xml:space="preserve">Traceback (most recent call last):
-  File "D:\python\Erp_KeyWordFrameWork\testScripts\TestBuydetail.py", line 137, in TestBuydetail
+  File "D:\Erp_KeyWordFrameWork\testScripts\TestBuydetail.py", line 141, in TestBuydetail
     eval(expressionStr)
   File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "D:\python\Erp_KeyWordFrameWork\action\PageAction.py", line 45, in open_browser
+  File "D:\Erp_KeyWordFrameWork\action\PageAction.py", line 45, in open_browser
     raise e
-  File "D:\python\Erp_KeyWordFrameWork\action\PageAction.py", line 43, in open_browser
+  File "D:\Erp_KeyWordFrameWork\action\PageAction.py", line 43, in open_browser
     waitUtil = waitUtil(driver)
 TypeError: 'NoneType' object is not callable
 </t>
   </si>
   <si>
-    <t>D:\python\Erp_KeyWordFrameWork\exceptionpictures\2017-12-15\13-37-12-688118.png</t>
+    <t>D:\Erp_KeyWordFrameWork\exceptionpictures\2017-12-18\19-49-58-596583.png</t>
   </si>
   <si>
     <t>打开URL地址</t>
@@ -132,9 +132,6 @@
     <t>http://10.1.2.58:8080/login.jsp</t>
   </si>
   <si>
-    <t>2017-12-15 13:37:14</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -144,7 +141,7 @@
     <t>maximize_browser</t>
   </si>
   <si>
-    <t>2017-12-15 13:37:15</t>
+    <t>2017-12-18 19:50:01</t>
   </si>
   <si>
     <t>等待5秒</t>
@@ -153,7 +150,7 @@
     <t>sleep</t>
   </si>
   <si>
-    <t>2017-12-15 13:37:20</t>
+    <t>2017-12-18 19:50:06</t>
   </si>
   <si>
     <t>判断浏览器的标题</t>
@@ -165,9 +162,6 @@
     <t>深圳市金斧子网络科技有限公司-ERP</t>
   </si>
   <si>
-    <t>2017-12-15 13:37:21</t>
-  </si>
-  <si>
     <t>输入用户名</t>
   </si>
   <si>
@@ -183,6 +177,9 @@
     <t>defang1</t>
   </si>
   <si>
+    <t>2017-12-18 19:50:07</t>
+  </si>
+  <si>
     <t>输入密码</t>
   </si>
   <si>
@@ -198,16 +195,235 @@
     <t>//*[@class='submit_wrap']</t>
   </si>
   <si>
-    <t>D:\python\Erp_KeyWordFrameWork\exceptionpictures\2017-12-15\13-38-35-833874.png</t>
-  </si>
-  <si>
-    <t>2017-12-15 13:38:38</t>
-  </si>
-  <si>
-    <t>2017-12-15 13:38:43</t>
-  </si>
-  <si>
-    <t>2017-12-15 13:38:48</t>
+    <t>2017-12-18 19:50:12</t>
+  </si>
+  <si>
+    <t>2017-12-18 19:50:17</t>
+  </si>
+  <si>
+    <t>判断成功登录后显示“退出系统”</t>
+  </si>
+  <si>
+    <t>waitVisibilityOfElementLocated</t>
+  </si>
+  <si>
+    <t>//*[text()='退出系统']</t>
+  </si>
+  <si>
+    <t>2017-12-18 19:50:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traceback (most recent call last):
+  File "D:\Erp_KeyWordFrameWork\testScripts\TestBuydetail.py", line 141, in TestBuydetail
+    eval(expressionStr)
+  File "&lt;string&gt;", line 1, in &lt;module&gt;
+  File "D:\Erp_KeyWordFrameWork\action\PageAction.py", line 212, in waitVisibilityOfElementLocated
+    raise e
+  File "D:\Erp_KeyWordFrameWork\action\PageAction.py", line 210, in waitVisibilityOfElementLocated
+    waitUtil.visibilityOfElementLocated(locationTpye,locatorExpression)
+AttributeError: 'NoneType' object has no attribute 'visibilityOfElementLocated'
+</t>
+  </si>
+  <si>
+    <t>D:\Erp_KeyWordFrameWork\exceptionpictures\2017-12-18\19-50-17-714438.png</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:10:19</t>
+  </si>
+  <si>
+    <t>http://10.1.2.211:8080/login.jsp</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:10:21</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:10:23</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:10:28</t>
+  </si>
+  <si>
+    <t>defang2</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:10:30</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:10:36</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:10:42</t>
+  </si>
+  <si>
+    <t>判断成功登录后显示“德芳客服”</t>
+  </si>
+  <si>
+    <t>德芳客服</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:10:48</t>
+  </si>
+  <si>
+    <t>切换入iframe</t>
+  </si>
+  <si>
+    <t>switch_to_frame</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>iframe89892232323</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:10:49</t>
+  </si>
+  <si>
+    <t>点击审批流的链接</t>
+  </si>
+  <si>
+    <t>html/body/div[1]/div/div/div[2]/div/div/div/div[2]/div/div[1]/ul/li[1]/div[1]</t>
+  </si>
+  <si>
+    <t>切换到新的窗口中</t>
+  </si>
+  <si>
+    <t>current_window_handle</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:10:50</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:10:55</t>
+  </si>
+  <si>
+    <t>点击审批流的同意按钮</t>
+  </si>
+  <si>
+    <t>//*[@id='btnAgree']</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:10:57</t>
+  </si>
+  <si>
+    <t>切入到弹框的ifram</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@id,'ligerwindow')]</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:11:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traceback (most recent call last):
+  File "D:\Erp_KeyWordFrameWork\testScripts\TestBuydetail.py", line 145, in TestBuydetail
+    eval(expressionStr)
+  File "&lt;string&gt;", line 1, in &lt;module&gt;
+  File "D:\Erp_KeyWordFrameWork\action\PageAction.py", line 160, in switch_to_frame
+    raise  e
+  File "D:\Erp_KeyWordFrameWork\action\PageAction.py", line 157, in switch_to_frame
+    driver.switch_to.frame(getElement(driver,locationTpye,frameLocatorExpression))
+  File "D:\Erp_KeyWordFrameWork\util\ObjectMap.py", line 15, in getElement
+    raise e
+  File "D:\Erp_KeyWordFrameWork\util\ObjectMap.py", line 12, in getElement
+    element = WebDriverWait(driver,30).until(lambda x:x.find_element(by = locateType,value=locatorExpression))
+  File "D:\Python36\lib\site-packages\selenium\webdriver\support\wait.py", line 80, in until
+    raise TimeoutException(message, screen, stacktrace)
+selenium.common.exceptions.TimeoutException: Message: 
+</t>
+  </si>
+  <si>
+    <t>D:\Erp_KeyWordFrameWork\exceptionpictures\2017-12-19\20-11-27-898057.png</t>
+  </si>
+  <si>
+    <t>等待3秒</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:11:31</t>
+  </si>
+  <si>
+    <t>点击填写意见的确定按钮</t>
+  </si>
+  <si>
+    <t>//*[@id='dataFormSave']</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:01:58</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:02:03</t>
+  </si>
+  <si>
+    <t>断言是否执行任务成功</t>
+  </si>
+  <si>
+    <t>assert_text</t>
+  </si>
+  <si>
+    <t>执行任务成功!</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:02:04</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:02:07</t>
+  </si>
+  <si>
+    <t>点击同意的确定按钮</t>
+  </si>
+  <si>
+    <t>//*[@class='l-dialog-btn-inner']</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:11:58</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:11:59</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:00</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:06</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:07</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:10</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:16</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:21</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:22</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:28</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:29</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:30</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:33</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:34</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:39</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:42</t>
+  </si>
+  <si>
+    <t>2017-12-19 20:12:43</t>
   </si>
 </sst>
 </file>
@@ -232,6 +448,14 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
       <family val="2"/>
@@ -242,7 +466,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -258,32 +482,8 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -308,8 +508,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -324,52 +523,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
       <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF800080"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -392,10 +548,70 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -421,13 +637,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,157 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,11 +831,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,56 +900,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,59 +919,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="8" numFmtId="0"/>
-    <xf borderId="4" fillId="26" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="9" numFmtId="0"/>
+    <xf borderId="2" fillId="16" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="5" fillId="16" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="5" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="4" numFmtId="0"/>
-    <xf borderId="7" fillId="15" fontId="20" numFmtId="0"/>
-    <xf borderId="4" fillId="15" fontId="12" numFmtId="0"/>
-    <xf borderId="3" fillId="11" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="4" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="21" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="16" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="5" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0"/>
+    <xf borderId="3" fillId="9" fontId="13" numFmtId="0"/>
+    <xf borderId="2" fillId="9" fontId="10" numFmtId="0"/>
+    <xf borderId="5" fillId="26" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="5" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="21" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,14 +988,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="10">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="10">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -1138,14 +1357,15 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="8" width="15.5"/>
+    <col customWidth="1" max="2" min="2" style="9" width="15.5"/>
     <col customWidth="1" max="3" min="3" style="1" width="10.375"/>
-    <col customWidth="1" max="6" min="6" style="3" width="18.25"/>
+    <col customWidth="1" max="4" min="4" style="9" width="18.375"/>
+    <col customWidth="1" max="6" min="6" style="2" width="18.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1164,14 +1384,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" s="8" spans="1:10">
+    <row customHeight="1" ht="40.5" r="2" s="9" spans="1:10">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -1188,15 +1408,15 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s"/>
       <c r="J2" t="s"/>
     </row>
-    <row customHeight="1" ht="54" r="3" s="8" spans="1:10">
+    <row customHeight="1" ht="54" r="3" s="9" spans="1:10">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -1207,16 +1427,16 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
+        <v>124</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="I3" t="s"/>
       <c r="J3" t="s"/>
@@ -1233,10 +1453,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1246,10 +1466,10 @@
     <col customWidth="1" max="4" min="4" style="1" width="9"/>
     <col customWidth="1" max="5" min="5" style="1" width="14.5"/>
     <col customWidth="1" max="6" min="6" style="1" width="22.625"/>
-    <col customWidth="1" max="7" min="7" style="2" width="13.5"/>
+    <col customWidth="1" max="7" min="7" style="3" width="13.5"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="40.5" r="1" s="8" spans="1:10">
+    <row customHeight="1" ht="40.5" r="1" s="9" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1488,7 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" t="s">
@@ -1281,7 +1501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" s="8" spans="1:10">
+    <row customHeight="1" ht="27" r="2" s="9" spans="1:10">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -1294,20 +1514,20 @@
       <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27" r="3" s="8" spans="1:10">
+        <v>31</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="3" s="9" spans="1:10">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -1320,158 +1540,193 @@
       <c r="F3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="4" s="8" spans="1:10">
+      <c r="H3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="4" s="9" spans="1:10">
       <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="8" spans="1:10">
+      <c r="H4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="9" spans="1:10">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" s="8" spans="1:10">
+        <v>41</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="6" s="9" spans="1:10">
       <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="7" s="8" spans="1:10">
+        <v>41</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="7" s="9" spans="1:10">
       <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="8" s="8" spans="1:10">
+      <c r="H7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="8" s="9" spans="1:10">
       <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="8" t="n">
         <v>123456</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="9" s="8" spans="1:10">
+        <v>50</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="9" s="9" spans="1:10">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27" r="10" s="9" spans="1:10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="11" s="9" spans="1:10">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
@@ -1485,15 +1740,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="4" min="2" style="1" width="9"/>
+    <col customWidth="1" max="5" min="5" style="1" width="18.25"/>
+    <col customWidth="1" max="6" min="6" style="1" width="9"/>
+    <col customWidth="1" max="7" min="7" style="2" width="9"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="40.5" r="1" s="8" spans="1:10">
+    <row customHeight="1" ht="40.5" r="1" s="9" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1773,7 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" t="s">
@@ -1524,6 +1785,541 @@
       <c r="J1" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row customHeight="1" ht="27" r="2" s="9" spans="1:10">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s"/>
+    </row>
+    <row customHeight="1" ht="54" r="3" s="9" spans="1:10">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+    </row>
+    <row customHeight="1" ht="27" r="4" s="9" spans="1:10">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="9" spans="1:10">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+    </row>
+    <row customHeight="1" ht="54" r="6" s="9" spans="1:10">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="7" s="9" spans="1:10">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="8" s="9" spans="1:10">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+    </row>
+    <row customHeight="1" ht="54" r="9" s="9" spans="1:10">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="9" spans="1:10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+    </row>
+    <row customHeight="1" ht="54" r="11" s="9" spans="1:10">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s"/>
+      <c r="J11" t="s"/>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="9" spans="1:10">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="13" s="9" spans="1:10">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+    </row>
+    <row customHeight="1" ht="67.5" r="14" s="9" spans="1:10">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="15" s="9" spans="1:10">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s"/>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="9" spans="1:10">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="17" s="9" spans="1:10">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="18" s="9" spans="1:10">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s"/>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="9" spans="1:10">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="20" s="9" spans="1:10">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="21" s="9" spans="1:10">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="22" s="9" spans="1:10">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="1" t="s"/>
+      <c r="J22" t="s"/>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="9" spans="1:10">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s"/>
+    </row>
+    <row customHeight="1" ht="40.5" r="24" s="9" spans="1:10">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>

--- a/testData/关键字驱动测试用例.xlsx
+++ b/testData/关键字驱动测试用例.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr codeName="ThisWorkbook"/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="测试用例" sheetId="1" r:id="rId1"/>
-    <s:sheet name="登录" sheetId="2" r:id="rId2"/>
-    <s:sheet name="审批购买记录" sheetId="3" r:id="rId3"/>
-    <s:sheet name="运维_审核产品费率" sheetId="4" r:id="rId4"/>
-    <s:sheet name="项目部总经理_审核产品费率" sheetId="5" r:id="rId5"/>
-    <s:sheet name="财务_审核产品费率" sheetId="6" r:id="rId6"/>
-    <s:sheet name="财务总监_审核产品费率" sheetId="7" r:id="rId7"/>
-    <s:sheet name="人力_审核产品费率" sheetId="8" r:id="rId8"/>
-    <s:sheet name="人力总监_审核产品费率" sheetId="9" r:id="rId9"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="28635" windowHeight="12210" activeTab="3"/>
+  </bookViews>
+  <sheets>
+    <sheet name="测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="登录" sheetId="2" r:id="rId2"/>
+    <sheet name="审批购买记录" sheetId="3" r:id="rId3"/>
+    <sheet name="运维_审核产品费率" sheetId="4" r:id="rId4"/>
+    <sheet name="项目部总经理_审核产品费率" sheetId="5" r:id="rId5"/>
+    <sheet name="财务_审核产品费率" sheetId="6" r:id="rId6"/>
+    <sheet name="财务总监_审核产品费率" sheetId="7" r:id="rId7"/>
+    <sheet name="人力_审核产品费率" sheetId="8" r:id="rId8"/>
+    <sheet name="人力总监_审核产品费率" sheetId="9" r:id="rId9"/>
+  </sheets>
+  <calcPr calcId="144525"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320">
   <si>
     <t>序号</t>
   </si>
@@ -57,7 +57,7 @@
     <t>n</t>
   </si>
   <si>
-    <t>2018-01-03 15:50:12</t>
+    <t>2018-01-08 19:01:27</t>
   </si>
   <si>
     <t>Faild</t>
@@ -69,19 +69,19 @@
     <t>审批提交的购买记录</t>
   </si>
   <si>
-    <t>2018-01-03 15:46:14</t>
-  </si>
-  <si>
     <t>运维_审核产品费率</t>
   </si>
   <si>
-    <t>2018-01-03 15:46:15</t>
+    <t>2018-01-08 19:01:28</t>
   </si>
   <si>
     <t>项目部总经理_审核产品费率</t>
   </si>
   <si>
-    <t>2018-01-03 15:47:45</t>
+    <t>y</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:10</t>
   </si>
   <si>
     <t>Pass</t>
@@ -90,25 +90,25 @@
     <t>财务_审核产品费率</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:47:46</t>
+    <t>2018-01-08 19:04:18</t>
   </si>
   <si>
     <t>财务总监_审核产品费率</t>
   </si>
   <si>
+    <t>2018-01-08 19:05:26</t>
+  </si>
+  <si>
     <t>人力_审核产品费率</t>
   </si>
   <si>
-    <t>2018-01-03 15:47:47</t>
+    <t>2018-01-08 19:06:58</t>
   </si>
   <si>
     <t>人力总监_审核产品费率</t>
   </si>
   <si>
-    <t>2018-01-03 15:47:48</t>
+    <t>2018-01-08 19:08:05</t>
   </si>
   <si>
     <t>测试步骤描述</t>
@@ -600,52 +600,58 @@
     <t>2018-01-03 15:40:22</t>
   </si>
   <si>
-    <t>2018-01-03 15:46:20</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:21</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:23</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:29</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:30</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:31</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:32</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:36</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:42</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:48</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:49</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:50</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:52</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:58</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:46:59</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:47:05</t>
+    <t>2018-01-08 19:01:33</t>
+  </si>
+  <si>
+    <t>http://10.1.2.69:8080/login.jsp</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:01:35</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:01:37</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:01:43</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:01:44</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:01:45</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:01:46</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:01:52</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:01:58</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:01:59</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:05</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:06</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:08</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:10</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:16</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:18</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:24</t>
   </si>
   <si>
     <t>输入项目部建议提成费率（%）</t>
@@ -657,10 +663,10 @@
     <t>20</t>
   </si>
   <si>
-    <t>2018-01-03 15:47:06</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:47:09</t>
+    <t>2018-01-08 19:02:25</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:30</t>
   </si>
   <si>
     <t>点击输入费率的确认保持按钮</t>
@@ -669,220 +675,226 @@
     <t>//*[text()='确认保存']</t>
   </si>
   <si>
-    <t>2018-01-03 15:47:10</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:47:16</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:47:17</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:47:21</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:47:22</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:47:33</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:47:34</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:47:39</t>
+    <t>2018-01-08 19:02:31</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:37</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:38</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:42</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:45</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:56</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:02:57</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:03</t>
   </si>
   <si>
     <t>//*[text()='确定']</t>
   </si>
   <si>
-    <t>2018-01-03 15:47:41</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:22</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:23</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:25</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:31</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:32</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:33</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:37</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:42</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:43</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:49</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:50</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:51</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:53</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:41:59</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:00</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:01</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:05</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:06</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:11</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:12</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:16</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:17</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:21</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:27</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:28</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:30</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:36</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:37</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:38</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:42</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:48</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:54</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:55</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:56</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:42:58</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:04</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:05</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:06</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:09</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:11</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:16</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:17</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:21</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:22</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:26</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:32</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:33</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:35</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:41</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:42</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:43</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:44</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:47</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:53</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:43:54</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:00</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:01</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:02</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:04</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:10</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:11</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:17</t>
+    <t>2018-01-08 19:03:05</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:09</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:16</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:17</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:19</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:25</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:26</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:27</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:28</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:32</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:38</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:39</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:44</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:45</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:46</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:48</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:54</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:56</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:03:57</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:01</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:02</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:08</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:12</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:14</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:17</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:23</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:24</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:26</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:32</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:33</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:34</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:35</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:39</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:45</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:46</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:51</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:52</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:54</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:04:56</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:02</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:03</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:04</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:08</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:10</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:16</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:17</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:20</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:22</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:31</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:32</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:34</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:40</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:41</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:42</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:43</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:46</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:52</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:53</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:05:59</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:00</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:02</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:04</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:09</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:11</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:17</t>
   </si>
   <si>
     <t>//input[@id='gainFromSale']</t>
@@ -891,482 +903,103 @@
     <t>15</t>
   </si>
   <si>
-    <t>2018-01-03 14:44:18</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:21</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:23</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:28</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:29</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:33</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:34</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:45</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceback (most recent call last):
-  File "D:\Erp_KeyWordFrameWork\action\PageAction.py", line 128, in assert_text
-    assert titleStr in a_text,"%s not found in text!" %titleStr
-AssertionError: 执行任务成功! not found in text!
-During handling of the above exception, another exception occurred:
-Traceback (most recent call last):
-  File "D:\Erp_KeyWordFrameWork\testScripts\TestBuydetail.py", line 145, in TestBuydetail
-    eval(expressionStr)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "D:\Erp_KeyWordFrameWork\action\PageAction.py", line 130, in assert_text
-    raise AssertionError(e)
-AssertionError: 执行任务成功! not found in text!
-</t>
-  </si>
-  <si>
-    <t>D:\Erp_KeyWordFrameWork\exceptionpictures\2018-1-3\14-44-46-239122.png</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:52</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceback (most recent call last):
-  File "D:\Erp_KeyWordFrameWork\testScripts\TestBuydetail.py", line 145, in TestBuydetail
-    eval(expressionStr)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "D:\Erp_KeyWordFrameWork\action\PageAction.py", line 98, in click
-    raise  e
-  File "D:\Erp_KeyWordFrameWork\action\PageAction.py", line 96, in click
-    getElement(driver, locationTpye, locatorExpression).click()
-  File "D:\Python36\lib\site-packages\selenium\webdriver\remote\webelement.py", line 80, in click
-    self._execute(Command.CLICK_ELEMENT)
-  File "D:\Python36\lib\site-packages\selenium\webdriver\remote\webelement.py", line 501, in _execute
-    return self._parent.execute(command, params)
-  File "D:\Python36\lib\site-packages\selenium\webdriver\remote\webdriver.py", line 308, in execute
-    self.error_handler.check_response(response)
-  File "D:\Python36\lib\site-packages\selenium\webdriver\remote\errorhandler.py", line 194, in check_response
-    raise exception_class(message, screen, stacktrace)
-selenium.common.exceptions.ElementNotVisibleException: Message: element not visible
-  (Session info: chrome=62.0.3202.89)
-  (Driver info: chromedriver=2.33.506120 (e3e53437346286c0bc2d2dc9aa4915ba81d9023f),platform=Windows NT 6.1.7601 SP1 x86_64)
-</t>
-  </si>
-  <si>
-    <t>D:\Erp_KeyWordFrameWork\exceptionpictures\2018-1-3\14-44-53-103552.png</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:44:57</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:03</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:04</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:06</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:12</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:13</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:14</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:18</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:24</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:30</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:31</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:32</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:34</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:40</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:42</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:43</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:46</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:48</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:53</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:54</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:58</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:45:59</t>
-  </si>
-  <si>
-    <t>2018-01-03 14:46:03</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:13</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:14</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:19</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:21</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:23</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:28</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:29</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:30</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:31</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:34</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:35</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:40</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:41</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:47</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:48</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:49</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:51</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:56</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:58</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:50:59</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:03</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:04</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:10</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:11</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:14</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:15</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:19</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:20</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:25</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:26</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:28</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:34</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:35</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:36</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:37</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:40</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:46</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:47</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:52</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:53</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:54</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:55</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:51:57</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:02</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:03</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:04</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:05</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:09</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:10</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:15</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:16</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:20</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:21</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:24</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:25</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:30</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:32</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:34</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:39</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:40</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:41</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:42</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:46</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:52</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:58</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:52:59</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:00</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:02</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:08</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:09</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:15</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:16</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:19</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:20</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:21</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:26</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:27</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:31</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:32</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:43</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:44</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:50</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:51</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:55</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:53:56</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:00</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:01</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:02</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:04</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:10</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:11</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:12</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:13</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:16</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:22</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:23</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:29</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:30</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:31</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:33</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:39</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:40</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:41</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:45</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:46</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:52</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:53</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:57</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:54:58</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:55:01</t>
-  </si>
-  <si>
-    <t>2018-01-03 15:55:02</t>
+    <t>2018-01-08 19:06:21</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:22</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:28</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:29</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:33</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:34</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:45</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:46</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:52</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:53</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:06:57</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:02</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:04</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:06</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:12</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:14</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:15</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:18</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:24</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:30</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:31</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:32</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:34</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:40</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:42</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:43</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:47</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:48</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:54</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:55</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:07:59</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:08:00</t>
+  </si>
+  <si>
+    <t>2018-01-08 19:08:04</t>
   </si>
 </sst>
 </file>
@@ -1374,209 +1007,181 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="22">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF008B00"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FF008B00"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF3030"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FFFF3030"/>
-      <sz val="11"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FFFF3030"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF008B00"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1700,30 +1305,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1764,6 +1345,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1771,6 +1370,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1785,15 +1399,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1822,32 +1427,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1871,142 +1455,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="4" numFmtId="0"/>
-    <xf borderId="3" fillId="14" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="6" fillId="25" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="12" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="12" numFmtId="0"/>
-    <xf borderId="5" fillId="17" fontId="17" numFmtId="0"/>
-    <xf borderId="3" fillId="17" fontId="15" numFmtId="0"/>
-    <xf borderId="1" fillId="8" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="12" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="16" numFmtId="0"/>
-    <xf borderId="7" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="21" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="12" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2295,26 +1896,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="15.5"/>
-    <col customWidth="1" max="3" min="3" style="2" width="10.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="18.375"/>
-    <col customWidth="1" max="6" min="6" style="10" width="29.5"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2330,15 +1928,15 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="2" s="1" spans="1:10">
-      <c r="A2" t="n">
+    <row r="2" ht="40.5" customHeight="1" spans="1:7">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2356,14 +1954,12 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-    </row>
-    <row customHeight="1" ht="54" r="3" s="1" spans="1:10">
-      <c r="A3" t="n">
+    </row>
+    <row r="3" ht="54" customHeight="1" spans="1:7">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2379,66 +1975,60 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="4" s="1" spans="1:10">
-      <c r="A4" t="n">
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:7">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>321</v>
-      </c>
-      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="5" s="1" spans="1:10">
-      <c r="A5" t="n">
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:7">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" s="1" spans="1:10">
-      <c r="A6" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:7">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2451,44 +2041,40 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="7" s="1" spans="1:10">
-      <c r="A7" t="n">
+      <c r="G6" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" customHeight="1" spans="1:7">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="8" s="1" spans="1:10">
-      <c r="A8" t="n">
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:7">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2501,19 +2087,17 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>405</v>
-      </c>
-      <c r="G8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="9" s="1" spans="1:10">
-      <c r="A9" t="n">
+    </row>
+    <row r="9" ht="40.5" customHeight="1" spans="1:7">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2526,46 +2110,42 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>431</v>
-      </c>
-      <c r="G9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="9"/>
-    <col customWidth="1" max="3" min="3" style="2" width="20.375"/>
-    <col customWidth="1" max="4" min="4" style="2" width="9"/>
-    <col customWidth="1" max="5" min="5" style="2" width="14.5"/>
-    <col customWidth="1" max="6" min="6" style="2" width="22.625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="13.5"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="40.5" r="1" s="1" spans="1:10">
+    <row r="1" ht="40.5" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2597,8 +2177,8 @@
         <v>37</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" s="1" spans="1:10">
-      <c r="A2" t="n">
+    <row r="2" ht="27" customHeight="1" spans="1:10">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2610,21 +2190,21 @@
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="3" s="1" spans="1:10">
-      <c r="A3" t="n">
+    <row r="3" ht="27" customHeight="1" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2636,15 +2216,15 @@
       <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="4" s="1" spans="1:10">
-      <c r="A4" t="n">
+    <row r="4" ht="27" customHeight="1" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2660,8 +2240,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5" s="1" spans="1:10">
-      <c r="A5" t="n">
+    <row r="5" ht="15" customHeight="1" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2670,7 +2250,7 @@
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" t="s">
@@ -2680,8 +2260,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="6" s="1" spans="1:10">
-      <c r="A6" t="n">
+    <row r="6" ht="27" customHeight="1" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2700,8 +2280,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="7" s="1" spans="1:10">
-      <c r="A7" t="n">
+    <row r="7" ht="27" customHeight="1" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2726,8 +2306,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="8" s="1" spans="1:10">
-      <c r="A8" t="n">
+    <row r="8" ht="27" customHeight="1" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2742,7 +2322,7 @@
       <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>123456</v>
       </c>
       <c r="G8" t="s">
@@ -2752,8 +2332,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="9" s="1" spans="1:10">
-      <c r="A9" t="n">
+    <row r="9" ht="27" customHeight="1" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2775,8 +2355,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="10" s="1" spans="1:10">
-      <c r="A10" t="n">
+    <row r="10" ht="27" customHeight="1" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2785,7 +2365,7 @@
       <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" t="s">
@@ -2795,8 +2375,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="11" s="1" spans="1:10">
-      <c r="A11" t="n">
+    <row r="11" ht="54" customHeight="1" spans="1:10">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2814,7 +2394,7 @@
       <c r="G11" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
@@ -2825,34 +2405,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="2" width="15.5"/>
-    <col customWidth="1" max="3" min="3" style="2" width="18.125"/>
-    <col customWidth="1" max="4" min="4" style="2" width="9"/>
-    <col customWidth="1" max="5" min="5" style="2" width="26"/>
-    <col customWidth="1" max="6" min="6" style="2" width="23"/>
-    <col customWidth="1" max="7" min="7" style="10" width="9"/>
+    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="40.5" r="1" s="1" spans="1:10">
+    <row r="1" ht="40.5" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2884,8 +2462,8 @@
         <v>37</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" s="1" spans="1:10">
-      <c r="A2" t="n">
+    <row r="2" ht="27" customHeight="1" spans="1:8">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2904,8 +2482,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="3" s="1" spans="1:10">
-      <c r="A3" t="n">
+    <row r="3" ht="54" customHeight="1" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2924,8 +2502,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="4" s="1" spans="1:10">
-      <c r="A4" t="n">
+    <row r="4" ht="27" customHeight="1" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2941,8 +2519,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5" s="1" spans="1:10">
-      <c r="A5" t="n">
+    <row r="5" ht="15" customHeight="1" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2951,7 +2529,7 @@
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" t="s">
@@ -2961,8 +2539,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="6" s="1" spans="1:10">
-      <c r="A6" t="n">
+    <row r="6" ht="54" customHeight="1" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2981,8 +2559,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="7" s="1" spans="1:10">
-      <c r="A7" t="n">
+    <row r="7" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3007,8 +2585,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="8" s="1" spans="1:10">
-      <c r="A8" t="n">
+    <row r="8" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3023,7 +2601,7 @@
       <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>123</v>
       </c>
       <c r="G8" t="s">
@@ -3033,8 +2611,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="9" s="1" spans="1:10">
-      <c r="A9" t="n">
+    <row r="9" ht="54" customHeight="1" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3056,8 +2634,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="10" s="1" spans="1:10">
-      <c r="A10" t="n">
+    <row r="10" ht="15" customHeight="1" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3066,7 +2644,7 @@
       <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" t="s">
@@ -3076,8 +2654,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="11" s="1" spans="1:10">
-      <c r="A11" t="n">
+    <row r="11" ht="54" customHeight="1" spans="1:9">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3095,10 +2673,10 @@
       <c r="H11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" s="1" spans="1:10">
-      <c r="A12" t="n">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:8">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3107,7 +2685,7 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>5</v>
       </c>
       <c r="G12" t="s">
@@ -3117,8 +2695,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="13" s="1" spans="1:10">
-      <c r="A13" t="n">
+    <row r="13" ht="67.5" customHeight="1" spans="1:8">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3140,8 +2718,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="14" s="1" spans="1:10">
-      <c r="A14" t="n">
+    <row r="14" ht="67.5" customHeight="1" spans="1:8">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3163,8 +2741,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="15" s="1" spans="1:10">
-      <c r="A15" t="n">
+    <row r="15" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3180,8 +2758,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="16" s="1" spans="1:10">
-      <c r="A16" t="n">
+    <row r="16" ht="15" customHeight="1" spans="1:8">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3190,7 +2768,7 @@
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" t="s">
@@ -3200,8 +2778,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="17" s="1" spans="1:10">
-      <c r="A17" t="n">
+    <row r="17" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3223,8 +2801,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:10">
-      <c r="A18" t="n">
+    <row r="18" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3246,8 +2824,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="19" s="1" spans="1:10">
-      <c r="A19" t="n">
+    <row r="19" ht="15" customHeight="1" spans="1:8">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3256,7 +2834,7 @@
       <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>3</v>
       </c>
       <c r="G19" t="s">
@@ -3266,8 +2844,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="20" s="1" spans="1:10">
-      <c r="A20" t="n">
+    <row r="20" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3289,8 +2867,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="21" s="1" spans="1:10">
-      <c r="A21" t="n">
+    <row r="21" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3299,7 +2877,7 @@
       <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2">
         <v>5</v>
       </c>
       <c r="G21" t="s">
@@ -3309,8 +2887,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="22" s="1" spans="1:10">
-      <c r="A22" t="n">
+    <row r="22" ht="40.5" customHeight="1" spans="1:9">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3328,10 +2906,10 @@
       <c r="H22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="23" s="1" spans="1:10">
-      <c r="A23" t="n">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:8">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3340,7 +2918,7 @@
       <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2">
         <v>3</v>
       </c>
       <c r="G23" t="s">
@@ -3350,8 +2928,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="24" s="1" spans="1:10">
-      <c r="A24" t="n">
+    <row r="24" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3373,8 +2951,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="25" s="1" spans="1:10">
-      <c r="A25" t="n">
+    <row r="25" ht="15" customHeight="1" spans="1:8">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3390,8 +2968,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="26" s="1" spans="1:10">
-      <c r="A26" t="n">
+    <row r="26" ht="15" customHeight="1" spans="1:8">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3410,8 +2988,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="27" s="1" spans="1:10">
-      <c r="A27" t="n">
+    <row r="27" ht="54" customHeight="1" spans="1:8">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3430,8 +3008,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="28" s="1" spans="1:10">
-      <c r="A28" t="n">
+    <row r="28" ht="15" customHeight="1" spans="1:8">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3447,8 +3025,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="29" s="1" spans="1:10">
-      <c r="A29" t="n">
+    <row r="29" ht="15" customHeight="1" spans="1:8">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3457,7 +3035,7 @@
       <c r="C29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2">
         <v>5</v>
       </c>
       <c r="G29" t="s">
@@ -3467,8 +3045,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="30" s="1" spans="1:10">
-      <c r="A30" t="n">
+    <row r="30" ht="54" customHeight="1" spans="1:8">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3487,8 +3065,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="31" s="1" spans="1:10">
-      <c r="A31" t="n">
+    <row r="31" ht="15" customHeight="1" spans="1:8">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3513,8 +3091,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="32" s="1" spans="1:10">
-      <c r="A32" t="n">
+    <row r="32" ht="15" customHeight="1" spans="1:8">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3529,7 +3107,7 @@
       <c r="E32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="7" t="n">
+      <c r="F32" s="7">
         <v>123</v>
       </c>
       <c r="G32" t="s">
@@ -3539,8 +3117,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="33" s="1" spans="1:10">
-      <c r="A33" t="n">
+    <row r="33" ht="15" customHeight="1" spans="1:8">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3562,8 +3140,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="34" s="1" spans="1:10">
-      <c r="A34" t="n">
+    <row r="34" ht="15" customHeight="1" spans="1:8">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3572,7 +3150,7 @@
       <c r="C34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2">
         <v>5</v>
       </c>
       <c r="G34" t="s">
@@ -3582,8 +3160,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="35" s="1" spans="1:10">
-      <c r="A35" t="n">
+    <row r="35" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3602,8 +3180,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="36" s="1" spans="1:10">
-      <c r="A36" t="n">
+    <row r="36" ht="15" customHeight="1" spans="1:8">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3612,7 +3190,7 @@
       <c r="C36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="2">
         <v>5</v>
       </c>
       <c r="G36" t="s">
@@ -3622,8 +3200,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="37" s="1" spans="1:10">
-      <c r="A37" t="n">
+    <row r="37" ht="15" customHeight="1" spans="1:8">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3645,8 +3223,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="38" s="1" spans="1:10">
-      <c r="A38" t="n">
+    <row r="38" ht="54" customHeight="1" spans="1:8">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3668,8 +3246,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="39" s="1" spans="1:10">
-      <c r="A39" t="n">
+    <row r="39" ht="27" customHeight="1" spans="1:8">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3685,8 +3263,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="40" s="1" spans="1:10">
-      <c r="A40" t="n">
+    <row r="40" ht="15" customHeight="1" spans="1:8">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3695,7 +3273,7 @@
       <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="2">
         <v>5</v>
       </c>
       <c r="G40" t="s">
@@ -3705,8 +3283,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="41" s="1" spans="1:10">
-      <c r="A41" t="n">
+    <row r="41" ht="27" customHeight="1" spans="1:8">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3728,8 +3306,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="42" s="1" spans="1:10">
-      <c r="A42" t="n">
+    <row r="42" ht="27" customHeight="1" spans="1:8">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3751,8 +3329,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="43" s="1" spans="1:10">
-      <c r="A43" t="n">
+    <row r="43" ht="15" customHeight="1" spans="1:8">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3761,7 +3339,7 @@
       <c r="C43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="F43" s="2">
         <v>3</v>
       </c>
       <c r="G43" t="s">
@@ -3771,8 +3349,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="44" s="1" spans="1:10">
-      <c r="A44" t="n">
+    <row r="44" ht="27" customHeight="1" spans="1:8">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3794,8 +3372,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="45" s="1" spans="1:10">
-      <c r="A45" t="n">
+    <row r="45" ht="15" customHeight="1" spans="1:8">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3804,7 +3382,7 @@
       <c r="C45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="2">
         <v>5</v>
       </c>
       <c r="G45" t="s">
@@ -3814,8 +3392,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="46" s="1" spans="1:10">
-      <c r="A46" t="n">
+    <row r="46" ht="27" customHeight="1" spans="1:8">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3834,8 +3412,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="47" s="1" spans="1:10">
-      <c r="A47" t="n">
+    <row r="47" ht="15" customHeight="1" spans="1:8">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3844,7 +3422,7 @@
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="F47" s="2">
         <v>3</v>
       </c>
       <c r="G47" t="s">
@@ -3854,8 +3432,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="48" s="1" spans="1:10">
-      <c r="A48" t="n">
+    <row r="48" ht="27" customHeight="1" spans="1:8">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3877,8 +3455,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="49" s="1" spans="1:10">
-      <c r="A49" t="n">
+    <row r="49" ht="15" customHeight="1" spans="1:8">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3895,34 +3473,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="27.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="30.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="11.125"/>
-    <col customWidth="1" max="5" min="5" style="9" width="25.375"/>
-    <col customWidth="1" max="6" min="6" style="1" width="25.5"/>
-    <col customWidth="1" max="7" min="7" style="1" width="20"/>
+    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" s="1" spans="1:10">
+    <row r="1" ht="27" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3954,8 +3530,8 @@
         <v>37</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" s="1" spans="1:10">
-      <c r="A2" t="n">
+    <row r="2" ht="15" customHeight="1" spans="1:8">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3964,8 +3540,8 @@
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
@@ -3976,8 +3552,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="3" s="1" spans="1:10">
-      <c r="A3" t="n">
+    <row r="3" ht="27" customHeight="1" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3986,8 +3562,8 @@
       <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
         <v>76</v>
       </c>
@@ -3998,8 +3574,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4" s="1" spans="1:10">
-      <c r="A4" t="n">
+    <row r="4" ht="15" customHeight="1" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4008,9 +3584,9 @@
       <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" t="s">
         <v>140</v>
       </c>
@@ -4018,8 +3594,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="5" s="1" spans="1:10">
-      <c r="A5" t="n">
+    <row r="5" ht="15" customHeight="1" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4028,9 +3604,9 @@
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" t="s">
@@ -4040,8 +3616,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="6" s="1" spans="1:10">
-      <c r="A6" t="n">
+    <row r="6" ht="27" customHeight="1" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4050,8 +3626,8 @@
       <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
@@ -4062,8 +3638,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="7" s="1" spans="1:10">
-      <c r="A7" t="n">
+    <row r="7" ht="15" customHeight="1" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4088,8 +3664,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="8" s="1" spans="1:10">
-      <c r="A8" t="n">
+    <row r="8" ht="15" customHeight="1" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4104,7 +3680,7 @@
       <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>123</v>
       </c>
       <c r="G8" t="s">
@@ -4114,8 +3690,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="9" s="1" spans="1:10">
-      <c r="A9" t="n">
+    <row r="9" ht="27" customHeight="1" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4130,7 +3706,7 @@
       <c r="E9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="2" t="n"/>
+      <c r="F9" s="2"/>
       <c r="G9" t="s">
         <v>145</v>
       </c>
@@ -4138,8 +3714,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="10" s="1" spans="1:10">
-      <c r="A10" t="n">
+    <row r="10" ht="15" customHeight="1" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4148,9 +3724,9 @@
       <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" t="s">
@@ -4160,8 +3736,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="11" s="1" spans="1:10">
-      <c r="A11" t="n">
+    <row r="11" ht="27" customHeight="1" spans="1:9">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4170,8 +3746,8 @@
       <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>85</v>
       </c>
@@ -4181,10 +3757,10 @@
       <c r="H11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" s="1" spans="1:10">
-      <c r="A12" t="n">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:8">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4193,9 +3769,9 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>5</v>
       </c>
       <c r="G12" t="s">
@@ -4205,8 +3781,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="13" s="1" spans="1:10">
-      <c r="A13" t="n">
+    <row r="13" ht="27" customHeight="1" spans="1:8">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4221,7 +3797,7 @@
       <c r="E13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="2" t="n"/>
+      <c r="F13" s="2"/>
       <c r="G13" t="s">
         <v>150</v>
       </c>
@@ -4229,8 +3805,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="54" r="14" s="1" spans="1:10">
-      <c r="A14" t="n">
+    <row r="14" ht="54" customHeight="1" spans="1:8">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -4245,7 +3821,7 @@
       <c r="E14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="2" t="n"/>
+      <c r="F14" s="2"/>
       <c r="G14" t="s">
         <v>151</v>
       </c>
@@ -4253,8 +3829,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="15" s="1" spans="1:10">
-      <c r="A15" t="n">
+    <row r="15" ht="15" customHeight="1" spans="1:8">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4263,9 +3839,9 @@
       <c r="C15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" t="s">
         <v>153</v>
       </c>
@@ -4273,8 +3849,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="16" s="1" spans="1:10">
-      <c r="A16" t="n">
+    <row r="16" ht="15" customHeight="1" spans="1:8">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -4283,9 +3859,9 @@
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" t="s">
@@ -4295,8 +3871,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="17" s="1" spans="1:10">
-      <c r="A17" t="n">
+    <row r="17" ht="15" customHeight="1" spans="1:8">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -4311,7 +3887,7 @@
       <c r="E17" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="2" t="n"/>
+      <c r="F17" s="2"/>
       <c r="G17" t="s">
         <v>156</v>
       </c>
@@ -4319,8 +3895,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:10">
-      <c r="A18" t="n">
+    <row r="18" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4335,7 +3911,7 @@
       <c r="E18" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F18" s="2" t="n"/>
+      <c r="F18" s="2"/>
       <c r="G18" t="s">
         <v>159</v>
       </c>
@@ -4343,8 +3919,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="40.5" r="19" s="1" spans="1:10">
-      <c r="A19" t="n">
+    <row r="19" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -4353,9 +3929,9 @@
       <c r="C19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" t="s">
         <v>162</v>
       </c>
@@ -4363,8 +3939,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="20" s="1" spans="1:10">
-      <c r="A20" t="n">
+    <row r="20" ht="15" customHeight="1" spans="1:8">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4373,9 +3949,9 @@
       <c r="C20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" t="s">
         <v>163</v>
       </c>
@@ -4383,8 +3959,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="21" s="1" spans="1:10">
-      <c r="A21" t="n">
+    <row r="21" ht="15" customHeight="1" spans="1:8">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4393,9 +3969,9 @@
       <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>3</v>
       </c>
       <c r="G21" t="s">
@@ -4405,8 +3981,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="22" s="1" spans="1:10">
-      <c r="A22" t="n">
+    <row r="22" ht="15" customHeight="1" spans="1:8">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -4431,8 +4007,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="23" s="1" spans="1:10">
-      <c r="A23" t="n">
+    <row r="23" ht="15" customHeight="1" spans="1:8">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -4441,9 +4017,9 @@
       <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
         <v>10</v>
       </c>
       <c r="G23" t="s">
@@ -4453,8 +4029,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="24" s="1" spans="1:10">
-      <c r="A24" t="n">
+    <row r="24" ht="15" customHeight="1" spans="1:8">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -4463,8 +4039,8 @@
       <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
         <v>171</v>
       </c>
@@ -4475,8 +4051,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="25" s="1" spans="1:10">
-      <c r="A25" t="n">
+    <row r="25" ht="15" customHeight="1" spans="1:8">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4485,9 +4061,9 @@
       <c r="C25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" t="s">
         <v>174</v>
       </c>
@@ -4495,8 +4071,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="26" s="1" spans="1:10">
-      <c r="A26" t="n">
+    <row r="26" ht="15" customHeight="1" spans="1:8">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4505,9 +4081,9 @@
       <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
         <v>5</v>
       </c>
       <c r="G26" t="s">
@@ -4517,8 +4093,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="27" s="1" spans="1:10">
-      <c r="A27" t="n">
+    <row r="27" ht="15" customHeight="1" spans="1:8">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -4527,9 +4103,9 @@
       <c r="C27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
       <c r="G27" t="s">
         <v>176</v>
       </c>
@@ -4537,8 +4113,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="28" s="1" spans="1:10">
-      <c r="A28" t="n">
+    <row r="28" ht="15" customHeight="1" spans="1:8">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -4553,7 +4129,7 @@
       <c r="E28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="2" t="n"/>
+      <c r="F28" s="2"/>
       <c r="G28" t="s">
         <v>177</v>
       </c>
@@ -4561,8 +4137,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="29" s="1" spans="1:10">
-      <c r="A29" t="n">
+    <row r="29" ht="27" customHeight="1" spans="1:8">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4577,7 +4153,7 @@
       <c r="E29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="2" t="n"/>
+      <c r="F29" s="2"/>
       <c r="G29" t="s">
         <v>178</v>
       </c>
@@ -4585,8 +4161,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="30" s="1" spans="1:10">
-      <c r="A30" t="n">
+    <row r="30" ht="15" customHeight="1" spans="1:8">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -4595,9 +4171,9 @@
       <c r="C30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2">
         <v>3</v>
       </c>
       <c r="G30" t="s">
@@ -4607,8 +4183,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="31" s="1" spans="1:10">
-      <c r="A31" t="n">
+    <row r="31" ht="15" customHeight="1" spans="1:8">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -4623,7 +4199,7 @@
       <c r="E31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="2" t="n"/>
+      <c r="F31" s="2"/>
       <c r="G31" t="s">
         <v>180</v>
       </c>
@@ -4631,8 +4207,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="32" s="1" spans="1:10">
-      <c r="A32" t="n">
+    <row r="32" ht="15" customHeight="1" spans="1:8">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -4641,9 +4217,9 @@
       <c r="C32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
         <v>5</v>
       </c>
       <c r="G32" t="s">
@@ -4653,8 +4229,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="33" s="1" spans="1:10">
-      <c r="A33" t="n">
+    <row r="33" ht="15" customHeight="1" spans="1:9">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4663,8 +4239,8 @@
       <c r="C33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
         <v>111</v>
       </c>
@@ -4674,10 +4250,10 @@
       <c r="H33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="34" s="1" spans="1:10">
-      <c r="A34" t="n">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:8">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -4686,9 +4262,9 @@
       <c r="C34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
         <v>3</v>
       </c>
       <c r="G34" t="s">
@@ -4698,8 +4274,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="35" s="1" spans="1:10">
-      <c r="A35" t="n">
+    <row r="35" ht="27" customHeight="1" spans="1:8">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -4714,7 +4290,7 @@
       <c r="E35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F35" s="2" t="n"/>
+      <c r="F35" s="2"/>
       <c r="G35" t="s">
         <v>184</v>
       </c>
@@ -4722,8 +4298,8 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="36" s="1" spans="1:10">
-      <c r="A36" t="n">
+    <row r="36" ht="15" customHeight="1" spans="1:8">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -4732,9 +4308,9 @@
       <c r="C36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="G36" t="s">
         <v>185</v>
       </c>
@@ -4743,33 +4319,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="29.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="20.25"/>
-    <col customWidth="1" max="5" min="5" style="1" width="21.5"/>
-    <col customWidth="1" max="6" min="6" style="1" width="37.25"/>
-    <col customWidth="1" max="7" min="7" style="1" width="25.5"/>
-    <col customWidth="1" max="9" min="9" style="1" width="16.75"/>
+    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="40.5" r="1" s="1" spans="1:10">
+    <row r="1" ht="40.5" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4801,8 +4375,8 @@
         <v>37</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="2" s="1" spans="1:10">
-      <c r="A2" t="n">
+    <row r="2" ht="27" customHeight="1" spans="1:9">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4811,8 +4385,8 @@
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
@@ -4822,9 +4396,10 @@
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="54" r="3" s="1" spans="1:10">
-      <c r="A3" t="n">
+      <c r="I2"/>
+    </row>
+    <row r="3" ht="54" customHeight="1" spans="1:9">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4833,20 +4408,21 @@
       <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="4" s="1" spans="1:10">
-      <c r="A4" t="n">
+      <c r="I3"/>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:9">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -4855,18 +4431,19 @@
       <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="1" spans="1:10">
-      <c r="A5" t="n">
+      <c r="I4"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:9">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4875,20 +4452,21 @@
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="54" r="6" s="1" spans="1:10">
-      <c r="A6" t="n">
+      <c r="I5"/>
+    </row>
+    <row r="6" ht="54" customHeight="1" spans="1:9">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4897,20 +4475,21 @@
       <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="7" s="1" spans="1:10">
-      <c r="A7" t="n">
+      <c r="I6"/>
+    </row>
+    <row r="7" ht="40.5" customHeight="1" spans="1:9">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4929,14 +4508,15 @@
         <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="8" s="1" spans="1:10">
-      <c r="A8" t="n">
+      <c r="I7"/>
+    </row>
+    <row r="8" ht="40.5" customHeight="1" spans="1:9">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4951,18 +4531,19 @@
       <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="54" r="9" s="1" spans="1:10">
-      <c r="A9" t="n">
+      <c r="I8"/>
+    </row>
+    <row r="9" ht="54" customHeight="1" spans="1:9">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4977,16 +4558,17 @@
       <c r="E9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="2" t="n"/>
+      <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="10" s="1" spans="1:10">
-      <c r="A10" t="n">
+      <c r="I9"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:9">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4995,20 +4577,21 @@
       <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="54" r="11" s="1" spans="1:10">
-      <c r="A11" t="n">
+      <c r="I10"/>
+    </row>
+    <row r="11" ht="54" customHeight="1" spans="1:9">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5017,21 +4600,21 @@
       <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" s="1" spans="1:10">
-      <c r="A12" t="n">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:9">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5040,20 +4623,21 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="54" r="13" s="1" spans="1:10">
-      <c r="A13" t="n">
+      <c r="I12"/>
+    </row>
+    <row r="13" ht="54" customHeight="1" spans="1:9">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5068,16 +4652,17 @@
       <c r="E13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="2" t="n"/>
+      <c r="F13" s="2"/>
       <c r="G13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="135" r="14" s="1" spans="1:10">
-      <c r="A14" t="n">
+      <c r="I13"/>
+    </row>
+    <row r="14" ht="135" customHeight="1" spans="1:9">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5092,16 +4677,17 @@
       <c r="E14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="2" t="n"/>
+      <c r="F14" s="2"/>
       <c r="G14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="40.5" r="15" s="1" spans="1:10">
-      <c r="A15" t="n">
+      <c r="I14"/>
+    </row>
+    <row r="15" ht="40.5" customHeight="1" spans="1:9">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5110,18 +4696,19 @@
       <c r="C15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="16" s="1" spans="1:10">
-      <c r="A16" t="n">
+      <c r="I15"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:9">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5130,20 +4717,21 @@
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="17" s="1" spans="1:10">
-      <c r="A17" t="n">
+      <c r="I16"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:9">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5158,16 +4746,17 @@
       <c r="E17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="2" t="n"/>
+      <c r="F17" s="2"/>
       <c r="G17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="18" s="1" spans="1:10">
-      <c r="A18" t="n">
+      <c r="I17"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:9">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5176,24 +4765,25 @@
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="19" s="1" spans="1:10">
-      <c r="A19" t="n">
+      <c r="I18"/>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:9">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>57</v>
@@ -5202,20 +4792,21 @@
         <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="20" s="1" spans="1:10">
-      <c r="A20" t="n">
+      <c r="I19"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:9">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5224,24 +4815,25 @@
       <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="21" s="1" spans="1:10">
-      <c r="A21" t="n">
+      <c r="I20"/>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="1:9">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>65</v>
@@ -5250,18 +4842,19 @@
         <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="2" t="n"/>
+        <v>210</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="22" s="1" spans="1:10">
-      <c r="A22" t="n">
+      <c r="I21"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:9">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -5270,20 +4863,21 @@
       <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="23" s="1" spans="1:10">
-      <c r="A23" t="n">
+      <c r="I22"/>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="1:9">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -5298,16 +4892,17 @@
       <c r="E23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="2" t="n"/>
+      <c r="F23" s="2"/>
       <c r="G23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="24" s="1" spans="1:10">
-      <c r="A24" t="n">
+      <c r="I23"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:9">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5316,20 +4911,21 @@
       <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="25" s="1" spans="1:10">
-      <c r="A25" t="n">
+      <c r="I24"/>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="1:9">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5344,16 +4940,17 @@
       <c r="E25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="2" t="n"/>
+      <c r="F25" s="2"/>
       <c r="G25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="26" s="1" spans="1:10">
-      <c r="A26" t="n">
+      <c r="I25"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:9">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5362,20 +4959,21 @@
       <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="409.5" r="27" s="1" spans="1:10">
-      <c r="A27" t="n">
+      <c r="I26"/>
+    </row>
+    <row r="27" ht="409.5" customHeight="1" spans="1:9">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -5384,21 +4982,21 @@
       <c r="C27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="28" s="1" spans="1:10">
-      <c r="A28" t="n">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:9">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5407,20 +5005,21 @@
       <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="29" s="1" spans="1:10">
-      <c r="A29" t="n">
+      <c r="I28"/>
+    </row>
+    <row r="29" ht="27" customHeight="1" spans="1:9">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5433,18 +5032,19 @@
         <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F29" s="2" t="n"/>
+        <v>219</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15" r="30" s="1" spans="1:10">
-      <c r="A30" t="n">
+      <c r="I29"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:9">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -5453,43 +5053,42 @@
       <c r="C30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="I30"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="24.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="23.5"/>
-    <col customWidth="1" max="4" min="4" style="1" width="19.625"/>
-    <col customWidth="1" max="5" min="5" style="1" width="36"/>
-    <col customWidth="1" max="6" min="6" style="1" width="40.75"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" s="1" spans="1:10">
+    <row r="1" ht="27" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5521,8 +5120,8 @@
         <v>37</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" s="1" spans="1:10">
-      <c r="A2" t="n">
+    <row r="2" ht="15" customHeight="1" spans="1:8">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5531,22 +5130,20 @@
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" s="1" spans="1:10">
-      <c r="A3" t="n">
+        <v>222</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5555,22 +5152,20 @@
       <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" s="1" spans="1:10">
-      <c r="A4" t="n">
+        <v>223</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -5579,20 +5174,18 @@
       <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="1" spans="1:10">
-      <c r="A5" t="n">
+        <v>224</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -5601,22 +5194,20 @@
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" s="1" spans="1:10">
-      <c r="A6" t="n">
+        <v>225</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -5625,22 +5216,20 @@
       <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>327</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" s="1" spans="1:10">
-      <c r="A7" t="n">
+        <v>226</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5659,16 +5248,14 @@
         <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" s="1" spans="1:10">
-      <c r="A8" t="n">
+        <v>227</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5683,20 +5270,18 @@
       <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>329</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" s="1" spans="1:10">
-      <c r="A9" t="n">
+        <v>228</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -5711,18 +5296,16 @@
       <c r="E9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="2" t="n"/>
+      <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>331</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="10" s="1" spans="1:10">
-      <c r="A10" t="n">
+        <v>229</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5731,22 +5314,20 @@
       <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>332</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="11" s="1" spans="1:10">
-      <c r="A11" t="n">
+        <v>230</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:8">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -5755,22 +5336,20 @@
       <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" s="1" spans="1:10">
-      <c r="A12" t="n">
+        <v>231</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:8">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -5779,22 +5358,20 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>334</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="13" s="1" spans="1:10">
-      <c r="A13" t="n">
+        <v>232</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:8">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5809,18 +5386,16 @@
       <c r="E13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="2" t="n"/>
+      <c r="F13" s="2"/>
       <c r="G13" t="s">
-        <v>335</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="14" s="1" spans="1:10">
-      <c r="A14" t="n">
+        <v>233</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5835,18 +5410,16 @@
       <c r="E14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="2" t="n"/>
+      <c r="F14" s="2"/>
       <c r="G14" t="s">
-        <v>336</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="15" s="1" spans="1:10">
-      <c r="A15" t="n">
+        <v>234</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:8">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5855,20 +5428,18 @@
       <c r="C15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" t="s">
-        <v>337</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="16" s="1" spans="1:10">
-      <c r="A16" t="n">
+        <v>235</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:8">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5877,22 +5448,20 @@
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>338</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="17" s="1" spans="1:10">
-      <c r="A17" t="n">
+        <v>236</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:8">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5907,18 +5476,16 @@
       <c r="E17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="2" t="n"/>
+      <c r="F17" s="2"/>
       <c r="G17" t="s">
-        <v>339</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s"/>
-      <c r="J17" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="18" s="1" spans="1:10">
-      <c r="A18" t="n">
+        <v>237</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:8">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5933,18 +5500,16 @@
       <c r="E18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="2" t="n"/>
+      <c r="F18" s="2"/>
       <c r="G18" t="s">
-        <v>340</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s"/>
-      <c r="J18" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="19" s="1" spans="1:10">
-      <c r="A19" t="n">
+        <v>238</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:8">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -5953,22 +5518,20 @@
       <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>341</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="20" s="1" spans="1:10">
-      <c r="A20" t="n">
+        <v>239</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:8">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -5983,18 +5546,16 @@
       <c r="E20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="2" t="n"/>
+      <c r="F20" s="2"/>
       <c r="G20" t="s">
-        <v>342</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="21" s="1" spans="1:10">
-      <c r="A21" t="n">
+        <v>240</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:8">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -6003,22 +5564,20 @@
       <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>343</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="22" s="1" spans="1:10">
-      <c r="A22" t="n">
+        <v>241</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:8">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -6027,22 +5586,20 @@
       <c r="C22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>344</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s"/>
-      <c r="J22" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="23" s="1" spans="1:10">
-      <c r="A23" t="n">
+        <v>241</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:8">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -6051,22 +5608,20 @@
       <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>345</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s"/>
-      <c r="J23" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="24" s="1" spans="1:10">
-      <c r="A24" t="n">
+        <v>242</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:8">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -6081,18 +5636,16 @@
       <c r="E24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="2" t="n"/>
+      <c r="F24" s="2"/>
       <c r="G24" t="s">
-        <v>346</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s"/>
-      <c r="J24" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="25" s="1" spans="1:10">
-      <c r="A25" t="n">
+        <v>243</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:8">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -6101,45 +5654,41 @@
       <c r="C25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" t="s">
-        <v>347</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s"/>
-      <c r="J25" t="s"/>
+        <v>244</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E40" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="19.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="18.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="12.875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="28.375"/>
-    <col customWidth="1" max="6" min="6" style="1" width="28.125"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" s="1" spans="1:10">
+    <row r="1" ht="27" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6171,8 +5720,8 @@
         <v>37</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" s="1" spans="1:10">
-      <c r="A2" t="n">
+    <row r="2" ht="15" customHeight="1" spans="1:8">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6181,22 +5730,20 @@
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="3" s="1" spans="1:10">
-      <c r="A3" t="n">
+        <v>245</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -6205,22 +5752,20 @@
       <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" s="1" spans="1:10">
-      <c r="A4" t="n">
+        <v>246</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6229,20 +5774,18 @@
       <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="1" spans="1:10">
-      <c r="A5" t="n">
+        <v>247</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6251,22 +5794,20 @@
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>352</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" s="1" spans="1:10">
-      <c r="A6" t="n">
+        <v>248</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6275,22 +5816,20 @@
       <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>353</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" s="1" spans="1:10">
-      <c r="A7" t="n">
+        <v>249</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6309,16 +5848,14 @@
         <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" s="1" spans="1:10">
-      <c r="A8" t="n">
+        <v>250</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6333,20 +5870,18 @@
       <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>355</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" s="1" spans="1:10">
-      <c r="A9" t="n">
+        <v>251</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -6361,18 +5896,16 @@
       <c r="E9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="2" t="n"/>
+      <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>356</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="10" s="1" spans="1:10">
-      <c r="A10" t="n">
+        <v>252</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -6381,22 +5914,20 @@
       <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>357</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="11" s="1" spans="1:10">
-      <c r="A11" t="n">
+        <v>253</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:8">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -6405,22 +5936,20 @@
       <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>358</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" s="1" spans="1:10">
-      <c r="A12" t="n">
+        <v>254</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:8">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -6429,22 +5958,20 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>360</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="13" s="1" spans="1:10">
-      <c r="A13" t="n">
+        <v>255</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="1:8">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6459,18 +5986,16 @@
       <c r="E13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="2" t="n"/>
+      <c r="F13" s="2"/>
       <c r="G13" t="s">
-        <v>361</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="14" s="1" spans="1:10">
-      <c r="A14" t="n">
+        <v>256</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -6485,18 +6010,16 @@
       <c r="E14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="2" t="n"/>
+      <c r="F14" s="2"/>
       <c r="G14" t="s">
-        <v>362</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="15" s="1" spans="1:10">
-      <c r="A15" t="n">
+        <v>257</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="27" customHeight="1" spans="1:8">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6505,20 +6028,18 @@
       <c r="C15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" t="s">
-        <v>363</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="16" s="1" spans="1:10">
-      <c r="A16" t="n">
+        <v>258</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:8">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6527,22 +6048,20 @@
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>365</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="17" s="1" spans="1:10">
-      <c r="A17" t="n">
+        <v>259</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:8">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -6557,18 +6076,16 @@
       <c r="E17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="2" t="n"/>
+      <c r="F17" s="2"/>
       <c r="G17" t="s">
-        <v>366</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s"/>
-      <c r="J17" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="18" s="1" spans="1:10">
-      <c r="A18" t="n">
+        <v>260</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:8">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -6583,18 +6100,16 @@
       <c r="E18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="2" t="n"/>
+      <c r="F18" s="2"/>
       <c r="G18" t="s">
-        <v>367</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s"/>
-      <c r="J18" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="19" s="1" spans="1:10">
-      <c r="A19" t="n">
+        <v>261</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:8">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -6603,22 +6118,20 @@
       <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>368</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="20" s="1" spans="1:10">
-      <c r="A20" t="n">
+        <v>262</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="27" customHeight="1" spans="1:8">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -6633,18 +6146,16 @@
       <c r="E20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="2" t="n"/>
+      <c r="F20" s="2"/>
       <c r="G20" t="s">
-        <v>369</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="21" s="1" spans="1:10">
-      <c r="A21" t="n">
+        <v>263</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:8">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -6653,22 +6164,20 @@
       <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>370</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="22" s="1" spans="1:10">
-      <c r="A22" t="n">
+        <v>264</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:8">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -6677,22 +6186,20 @@
       <c r="C22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>371</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s"/>
-      <c r="J22" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="23" s="1" spans="1:10">
-      <c r="A23" t="n">
+        <v>265</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:8">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -6701,22 +6208,20 @@
       <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>372</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s"/>
-      <c r="J23" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="24" s="1" spans="1:10">
-      <c r="A24" t="n">
+        <v>266</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1" spans="1:8">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -6731,18 +6236,16 @@
       <c r="E24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="2" t="n"/>
+      <c r="F24" s="2"/>
       <c r="G24" t="s">
-        <v>373</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s"/>
-      <c r="J24" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="25" s="1" spans="1:10">
-      <c r="A25" t="n">
+        <v>267</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:8">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -6751,45 +6254,41 @@
       <c r="C25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" t="s">
-        <v>375</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s"/>
-      <c r="J25" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="16.75"/>
-    <col customWidth="1" max="3" min="3" style="1" width="18.125"/>
-    <col customWidth="1" max="5" min="5" style="1" width="29.75"/>
-    <col customWidth="1" max="6" min="6" style="1" width="26"/>
-    <col customWidth="1" max="7" min="7" style="1" width="24.5"/>
+    <col min="2" max="2" width="16.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="40.5" r="1" s="1" spans="1:10">
+    <row r="1" ht="40.5" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6821,8 +6320,8 @@
         <v>37</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" s="1" spans="1:10">
-      <c r="A2" t="n">
+    <row r="2" ht="15" customHeight="1" spans="1:8">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6831,22 +6330,20 @@
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="3" s="1" spans="1:10">
-      <c r="A3" t="n">
+        <v>268</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -6855,22 +6352,20 @@
       <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>377</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" s="1" spans="1:10">
-      <c r="A4" t="n">
+        <v>269</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -6879,20 +6374,18 @@
       <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>378</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="1" spans="1:10">
-      <c r="A5" t="n">
+        <v>270</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6901,22 +6394,20 @@
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>380</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" s="1" spans="1:10">
-      <c r="A6" t="n">
+        <v>271</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -6925,22 +6416,20 @@
       <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>380</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" s="1" spans="1:10">
-      <c r="A7" t="n">
+        <v>272</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -6959,16 +6448,14 @@
         <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" s="1" spans="1:10">
-      <c r="A8" t="n">
+        <v>273</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -6983,20 +6470,18 @@
       <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>382</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" s="1" spans="1:10">
-      <c r="A9" t="n">
+        <v>274</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -7011,18 +6496,16 @@
       <c r="E9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="2" t="n"/>
+      <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>383</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="10" s="1" spans="1:10">
-      <c r="A10" t="n">
+        <v>275</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7031,22 +6514,20 @@
       <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>384</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="11" s="1" spans="1:10">
-      <c r="A11" t="n">
+        <v>276</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:9">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -7055,22 +6536,21 @@
       <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>384</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="2" t="s"/>
-      <c r="J11" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" s="1" spans="1:10">
-      <c r="A12" t="n">
+        <v>277</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:8">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7079,22 +6559,20 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>385</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="13" s="1" spans="1:10">
-      <c r="A13" t="n">
+        <v>278</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="1:8">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7109,18 +6587,16 @@
       <c r="E13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="2" t="n"/>
+      <c r="F13" s="2"/>
       <c r="G13" t="s">
-        <v>386</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="14" s="1" spans="1:10">
-      <c r="A14" t="n">
+        <v>279</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -7135,18 +6611,16 @@
       <c r="E14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="2" t="n"/>
+      <c r="F14" s="2"/>
       <c r="G14" t="s">
-        <v>387</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="15" s="1" spans="1:10">
-      <c r="A15" t="n">
+        <v>280</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:8">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -7155,20 +6629,18 @@
       <c r="C15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" t="s">
-        <v>388</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="16" s="1" spans="1:10">
-      <c r="A16" t="n">
+        <v>281</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:8">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -7177,22 +6649,20 @@
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>389</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="17" s="1" spans="1:10">
-      <c r="A17" t="n">
+        <v>282</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="27" customHeight="1" spans="1:8">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -7207,18 +6677,16 @@
       <c r="E17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="2" t="n"/>
+      <c r="F17" s="2"/>
       <c r="G17" t="s">
-        <v>390</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s"/>
-      <c r="J17" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="18" s="1" spans="1:10">
-      <c r="A18" t="n">
+        <v>283</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:8">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -7227,26 +6695,24 @@
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>391</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s"/>
-      <c r="J18" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="19" s="1" spans="1:10">
-      <c r="A19" t="n">
+        <v>284</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:8">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>57</v>
@@ -7255,22 +6721,20 @@
         <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G19" t="s">
-        <v>392</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="20" s="1" spans="1:10">
-      <c r="A20" t="n">
+        <v>284</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:8">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -7279,26 +6743,24 @@
       <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>394</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="21" s="1" spans="1:10">
-      <c r="A21" t="n">
+        <v>287</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="27" customHeight="1" spans="1:8">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>65</v>
@@ -7307,20 +6769,18 @@
         <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="2" t="n"/>
+        <v>210</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" t="s">
-        <v>395</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="22" s="1" spans="1:10">
-      <c r="A22" t="n">
+        <v>288</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:8">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -7329,22 +6789,20 @@
       <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>396</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s"/>
-      <c r="J22" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="23" s="1" spans="1:10">
-      <c r="A23" t="n">
+        <v>289</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="1:8">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -7359,18 +6817,16 @@
       <c r="E23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="2" t="n"/>
+      <c r="F23" s="2"/>
       <c r="G23" t="s">
-        <v>397</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s"/>
-      <c r="J23" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="24" s="1" spans="1:10">
-      <c r="A24" t="n">
+        <v>290</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:8">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -7379,22 +6835,20 @@
       <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>398</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s"/>
-      <c r="J24" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="25" s="1" spans="1:10">
-      <c r="A25" t="n">
+        <v>291</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="1:8">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -7409,18 +6863,16 @@
       <c r="E25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="2" t="n"/>
+      <c r="F25" s="2"/>
       <c r="G25" t="s">
-        <v>399</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s"/>
-      <c r="J25" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="26" s="1" spans="1:10">
-      <c r="A26" t="n">
+        <v>292</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:8">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -7429,22 +6881,20 @@
       <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>400</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" t="s"/>
-      <c r="J26" t="s"/>
-    </row>
-    <row customHeight="1" ht="409.5" r="27" s="1" spans="1:10">
-      <c r="A27" t="n">
+        <v>293</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="409.5" customHeight="1" spans="1:9">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -7453,22 +6903,21 @@
       <c r="C27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>401</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="2" t="s"/>
-      <c r="J27" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="28" s="1" spans="1:10">
-      <c r="A28" t="n">
+        <v>294</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:8">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -7477,22 +6926,20 @@
       <c r="C28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>402</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s"/>
-      <c r="J28" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="29" s="1" spans="1:10">
-      <c r="A29" t="n">
+        <v>295</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" ht="27" customHeight="1" spans="1:8">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -7505,20 +6952,18 @@
         <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F29" s="2" t="n"/>
+        <v>219</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" t="s">
-        <v>403</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s"/>
-      <c r="J29" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="30" s="1" spans="1:10">
-      <c r="A30" t="n">
+        <v>296</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:8">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -7527,46 +6972,42 @@
       <c r="C30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" t="s">
-        <v>404</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s"/>
-      <c r="J30" t="s"/>
+        <v>297</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="19.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="18.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="12.875"/>
-    <col customWidth="1" max="5" min="5" style="1" width="28.375"/>
-    <col customWidth="1" max="6" min="6" style="1" width="28.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="20.625"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="27" r="1" s="1" spans="1:10">
+    <row r="1" ht="27" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7598,8 +7039,8 @@
         <v>37</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="2" s="1" spans="1:10">
-      <c r="A2" t="n">
+    <row r="2" ht="15" customHeight="1" spans="1:8">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -7608,22 +7049,20 @@
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="3" s="1" spans="1:10">
-      <c r="A3" t="n">
+        <v>298</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:8">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -7632,22 +7071,20 @@
       <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>408</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" s="1" spans="1:10">
-      <c r="A4" t="n">
+        <v>299</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:8">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -7656,20 +7093,18 @@
       <c r="C4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>409</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="1" spans="1:10">
-      <c r="A5" t="n">
+        <v>300</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:8">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7678,22 +7113,20 @@
       <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>410</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="6" s="1" spans="1:10">
-      <c r="A6" t="n">
+        <v>301</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:8">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -7702,22 +7135,20 @@
       <c r="C6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>411</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" s="1" spans="1:10">
-      <c r="A7" t="n">
+        <v>301</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7736,16 +7167,14 @@
         <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" s="1" spans="1:10">
-      <c r="A8" t="n">
+        <v>302</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -7760,20 +7189,18 @@
       <c r="E8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>413</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="9" s="1" spans="1:10">
-      <c r="A9" t="n">
+        <v>303</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -7788,18 +7215,16 @@
       <c r="E9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="2" t="n"/>
+      <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>414</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="10" s="1" spans="1:10">
-      <c r="A10" t="n">
+        <v>304</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7808,22 +7233,20 @@
       <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>415</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="11" s="1" spans="1:10">
-      <c r="A11" t="n">
+        <v>305</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:8">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -7832,22 +7255,20 @@
       <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>416</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" s="1" spans="1:10">
-      <c r="A12" t="n">
+        <v>305</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:8">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7856,22 +7277,20 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>417</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="13" s="1" spans="1:10">
-      <c r="A13" t="n">
+        <v>306</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="1:8">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7886,18 +7305,16 @@
       <c r="E13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="2" t="n"/>
+      <c r="F13" s="2"/>
       <c r="G13" t="s">
-        <v>418</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="14" s="1" spans="1:10">
-      <c r="A14" t="n">
+        <v>307</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" customHeight="1" spans="1:8">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -7912,18 +7329,16 @@
       <c r="E14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="2" t="n"/>
+      <c r="F14" s="2"/>
       <c r="G14" t="s">
-        <v>419</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="15" s="1" spans="1:10">
-      <c r="A15" t="n">
+        <v>308</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="27" customHeight="1" spans="1:8">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -7932,20 +7347,18 @@
       <c r="C15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" t="s">
-        <v>420</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="16" s="1" spans="1:10">
-      <c r="A16" t="n">
+        <v>309</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:8">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -7954,22 +7367,20 @@
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>421</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="17" s="1" spans="1:10">
-      <c r="A17" t="n">
+        <v>310</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:8">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -7984,18 +7395,16 @@
       <c r="E17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="2" t="n"/>
+      <c r="F17" s="2"/>
       <c r="G17" t="s">
-        <v>422</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s"/>
-      <c r="J17" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="18" s="1" spans="1:10">
-      <c r="A18" t="n">
+        <v>311</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:8">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -8010,18 +7419,16 @@
       <c r="E18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="2" t="n"/>
+      <c r="F18" s="2"/>
       <c r="G18" t="s">
-        <v>423</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s"/>
-      <c r="J18" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="19" s="1" spans="1:10">
-      <c r="A19" t="n">
+        <v>312</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:8">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -8030,22 +7437,20 @@
       <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>424</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="20" s="1" spans="1:10">
-      <c r="A20" t="n">
+        <v>313</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="27" customHeight="1" spans="1:8">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -8060,18 +7465,16 @@
       <c r="E20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="2" t="n"/>
+      <c r="F20" s="2"/>
       <c r="G20" t="s">
-        <v>425</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s"/>
-      <c r="J20" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="21" s="1" spans="1:10">
-      <c r="A21" t="n">
+        <v>314</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:8">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -8080,22 +7483,20 @@
       <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>426</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s"/>
-      <c r="J21" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="22" s="1" spans="1:10">
-      <c r="A22" t="n">
+        <v>315</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:8">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -8104,22 +7505,20 @@
       <c r="C22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>427</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s"/>
-      <c r="J22" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="23" s="1" spans="1:10">
-      <c r="A23" t="n">
+        <v>316</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:8">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -8128,22 +7527,20 @@
       <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>428</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s"/>
-      <c r="J23" t="s"/>
-    </row>
-    <row customHeight="1" ht="27" r="24" s="1" spans="1:10">
-      <c r="A24" t="n">
+        <v>317</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1" spans="1:8">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -8158,18 +7555,16 @@
       <c r="E24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="2" t="n"/>
+      <c r="F24" s="2"/>
       <c r="G24" t="s">
-        <v>429</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s"/>
-      <c r="J24" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="25" s="1" spans="1:10">
-      <c r="A25" t="n">
+        <v>318</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:8">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -8178,19 +7573,18 @@
       <c r="C25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" t="s">
-        <v>430</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s"/>
-      <c r="J25" t="s"/>
+        <v>319</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>